--- a/benchmarkResults.xlsx
+++ b/benchmarkResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio Martin\martiser@ethz.ch\MateJournal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio Martin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477A2884-2912-400E-990A-84D42AAF2A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0893A3-569F-4086-802A-69D43112A0CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18180" yWindow="3375" windowWidth="10110" windowHeight="12210" activeTab="2" xr2:uid="{04321E96-F612-464E-ACCE-320DD8105528}"/>
+    <workbookView xWindow="9564" yWindow="3972" windowWidth="19368" windowHeight="18420" xr2:uid="{04321E96-F612-464E-ACCE-320DD8105528}"/>
   </bookViews>
   <sheets>
     <sheet name="I=0.0" sheetId="1" r:id="rId1"/>
@@ -584,21 +584,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E89E62-A2C4-44C6-B615-44CBD140C7CB}">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" customWidth="1"/>
+    <col min="20" max="20" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
@@ -628,7 +629,7 @@
       <c r="W1" s="11"/>
       <c r="X1" s="11"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>42.006999999999998</v>
       </c>
@@ -737,22 +738,22 @@
         <v>46.706200000000003</v>
       </c>
       <c r="T3" s="2">
-        <v>42.241999999999997</v>
+        <v>45.027999999999999</v>
       </c>
       <c r="U3" s="2">
-        <v>85.010999999999996</v>
+        <v>64.456000000000003</v>
       </c>
       <c r="V3" s="2">
-        <v>49.578800000000001</v>
+        <v>60.077300000000001</v>
       </c>
       <c r="W3" s="2">
-        <v>50.900300000000001</v>
+        <v>61.801900000000003</v>
       </c>
       <c r="X3" s="2">
-        <v>47.344000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>59.639000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>41.917999999999999</v>
       </c>
@@ -799,22 +800,22 @@
         <v>47.251300000000001</v>
       </c>
       <c r="T4" s="2">
-        <v>42.649000000000001</v>
+        <v>44.951999999999998</v>
       </c>
       <c r="U4" s="2">
-        <v>65.914000000000001</v>
+        <v>65.561999999999998</v>
       </c>
       <c r="V4" s="2">
-        <v>48.802500000000002</v>
+        <v>62.006599999999999</v>
       </c>
       <c r="W4" s="2">
-        <v>51.317</v>
+        <v>62.717100000000002</v>
       </c>
       <c r="X4" s="2">
-        <v>49.693300000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>59.499499999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>42.106000000000002</v>
       </c>
@@ -861,22 +862,22 @@
         <v>47.1</v>
       </c>
       <c r="T5" s="2">
-        <v>42.412999999999997</v>
+        <v>45.066000000000003</v>
       </c>
       <c r="U5" s="2">
-        <v>74.400000000000006</v>
+        <v>65.161000000000001</v>
       </c>
       <c r="V5" s="2">
-        <v>48.8688</v>
+        <v>60.770699999999998</v>
       </c>
       <c r="W5" s="2">
-        <v>50.469700000000003</v>
+        <v>62.239199999999997</v>
       </c>
       <c r="X5" s="2">
-        <v>49.026699999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>60.432400000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>41.984999999999999</v>
       </c>
@@ -923,22 +924,22 @@
         <v>46.826000000000001</v>
       </c>
       <c r="T6" s="2">
-        <v>41.814999999999998</v>
+        <v>45.009</v>
       </c>
       <c r="U6" s="2">
-        <v>63.93</v>
+        <v>64.584999999999994</v>
       </c>
       <c r="V6" s="2">
-        <v>48.605800000000002</v>
+        <v>60.6066</v>
       </c>
       <c r="W6" s="2">
-        <v>147.51499999999999</v>
+        <v>61.264899999999997</v>
       </c>
       <c r="X6" s="2">
-        <v>49.055900000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>61.209299999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>41.792999999999999</v>
       </c>
@@ -985,22 +986,22 @@
         <v>47.138500000000001</v>
       </c>
       <c r="T7" s="3">
-        <v>41.152999999999999</v>
+        <v>44.975999999999999</v>
       </c>
       <c r="U7" s="3">
-        <v>75.138999999999996</v>
+        <v>74.988</v>
       </c>
       <c r="V7" s="3">
-        <v>48.368000000000002</v>
+        <v>59.997300000000003</v>
       </c>
       <c r="W7" s="3">
-        <v>50.622900000000001</v>
+        <v>61.570500000000003</v>
       </c>
       <c r="X7" s="3">
-        <v>47.796799999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>59.860700000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>41.076999999999998</v>
       </c>
@@ -1062,7 +1063,7 @@
         <v>59.370600000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>41.087000000000003</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>59.8917</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>41.085000000000001</v>
       </c>
@@ -1186,7 +1187,7 @@
         <v>59.061900000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>41.064</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>59.930700000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>41.067999999999998</v>
       </c>
@@ -1310,7 +1311,7 @@
         <v>60.37</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1332,7 +1333,7 @@
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1359,7 +1360,7 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
@@ -1434,26 +1435,26 @@
       </c>
       <c r="T15" s="8">
         <f>40/MEDIAN(T$19:T$28)</f>
-        <v>0.93788834439260005</v>
+        <v>0.88758709448364614</v>
       </c>
       <c r="U15" s="8">
         <f t="shared" ref="U15:X15" si="3">40/MEDIAN(U$19:U$28)</f>
-        <v>0.61603856401410728</v>
+        <v>0.61813292948648613</v>
       </c>
       <c r="V15" s="8">
         <f t="shared" si="3"/>
-        <v>0.80679645332279115</v>
+        <v>0.6639588212739046</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" si="3"/>
-        <v>0.6498464737705717</v>
+        <v>0.64722929230331105</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="3"/>
-        <v>0.80493748654245134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.6682180462306655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
@@ -1528,26 +1529,26 @@
       </c>
       <c r="T16" s="8">
         <f>40/MIN(T$19:T$28)</f>
-        <v>0.97198260151143301</v>
+        <v>0.88983804947499556</v>
       </c>
       <c r="U16" s="8">
         <f t="shared" ref="U16:X16" si="7">40/MIN(U$19:U$28)</f>
-        <v>0.62568434224933522</v>
+        <v>0.62057837904927393</v>
       </c>
       <c r="V16" s="8">
         <f t="shared" si="7"/>
-        <v>0.8269930532583526</v>
+        <v>0.67841454520784927</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" si="7"/>
-        <v>0.79255474076525123</v>
+        <v>0.6529023959885677</v>
       </c>
       <c r="X16" s="8">
         <f t="shared" si="7"/>
-        <v>0.84488002703616083</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.67725555730513243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
@@ -1626,22 +1627,22 @@
       </c>
       <c r="U17" s="8">
         <f t="shared" ref="U17:X17" si="11">40/MAX(U$19:U$28)</f>
-        <v>0.53234671741705375</v>
+        <v>0.6101095146578811</v>
       </c>
       <c r="V17" s="8">
         <f t="shared" si="11"/>
-        <v>0.65942181894914542</v>
+        <v>0.6450926191727977</v>
       </c>
       <c r="W17" s="8">
         <f t="shared" si="11"/>
-        <v>0.61032828032377917</v>
+        <v>0.63430747103197072</v>
       </c>
       <c r="X17" s="8">
         <f t="shared" si="11"/>
-        <v>0.6674375570450537</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.66189659851338023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B19" s="9" cm="1">
         <f t="array" ref="B19">IF(IFERROR(IF(MATCH(B3,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B3)</f>
         <v>42.006999999999998</v>
@@ -1707,26 +1708,26 @@
       <c r="S19" s="10"/>
       <c r="T19" s="9" cm="1">
         <f t="array" ref="T19">IF(IFERROR(IF(MATCH(T3,LARGE(T$3:T$12,{1}),0)&gt;0,0,0),1)=0,"",1*T3)</f>
-        <v>42.241999999999997</v>
-      </c>
-      <c r="U19" s="9" t="str" cm="1">
+        <v>45.027999999999999</v>
+      </c>
+      <c r="U19" s="9" cm="1">
         <f t="array" ref="U19">IF(IFERROR(IF(MATCH(U3,LARGE(U$3:U$12,{1}),0)&gt;0,0,0),1)=0,"",1*U3)</f>
-        <v/>
+        <v>64.456000000000003</v>
       </c>
       <c r="V19" s="9" cm="1">
         <f t="array" ref="V19">IF(IFERROR(IF(MATCH(V3,LARGE(V$3:V$12,{1}),0)&gt;0,0,0),1)=0,"",1*V3)</f>
-        <v>49.578800000000001</v>
+        <v>60.077300000000001</v>
       </c>
       <c r="W19" s="9" cm="1">
         <f t="array" ref="W19">IF(IFERROR(IF(MATCH(W3,LARGE(W$3:W$12,{1}),0)&gt;0,0,0),1)=0,"",1*W3)</f>
-        <v>50.900300000000001</v>
+        <v>61.801900000000003</v>
       </c>
       <c r="X19" s="9" cm="1">
         <f t="array" ref="X19">IF(IFERROR(IF(MATCH(X3,LARGE(X$3:X$12,{1}),0)&gt;0,0,0),1)=0,"",1*X3)</f>
-        <v>47.344000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+        <v>59.639000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B20" s="9" cm="1">
         <f t="array" ref="B20">IF(IFERROR(IF(MATCH(B4,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B4)</f>
         <v>41.917999999999999</v>
@@ -1792,26 +1793,26 @@
       <c r="S20" s="10"/>
       <c r="T20" s="9" cm="1">
         <f t="array" ref="T20">IF(IFERROR(IF(MATCH(T4,LARGE(T$3:T$12,{1}),0)&gt;0,0,0),1)=0,"",1*T4)</f>
-        <v>42.649000000000001</v>
+        <v>44.951999999999998</v>
       </c>
       <c r="U20" s="9" cm="1">
         <f t="array" ref="U20">IF(IFERROR(IF(MATCH(U4,LARGE(U$3:U$12,{1}),0)&gt;0,0,0),1)=0,"",1*U4)</f>
-        <v>65.914000000000001</v>
+        <v>65.561999999999998</v>
       </c>
       <c r="V20" s="9" cm="1">
         <f t="array" ref="V20">IF(IFERROR(IF(MATCH(V4,LARGE(V$3:V$12,{1}),0)&gt;0,0,0),1)=0,"",1*V4)</f>
-        <v>48.802500000000002</v>
+        <v>62.006599999999999</v>
       </c>
       <c r="W20" s="9" cm="1">
         <f t="array" ref="W20">IF(IFERROR(IF(MATCH(W4,LARGE(W$3:W$12,{1}),0)&gt;0,0,0),1)=0,"",1*W4)</f>
-        <v>51.317</v>
+        <v>62.717100000000002</v>
       </c>
       <c r="X20" s="9" cm="1">
         <f t="array" ref="X20">IF(IFERROR(IF(MATCH(X4,LARGE(X$3:X$12,{1}),0)&gt;0,0,0),1)=0,"",1*X4)</f>
-        <v>49.693300000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+        <v>59.499499999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B21" s="9" t="str" cm="1">
         <f t="array" ref="B21">IF(IFERROR(IF(MATCH(B5,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B5)</f>
         <v/>
@@ -1877,26 +1878,26 @@
       <c r="S21" s="10"/>
       <c r="T21" s="9" cm="1">
         <f t="array" ref="T21">IF(IFERROR(IF(MATCH(T5,LARGE(T$3:T$12,{1}),0)&gt;0,0,0),1)=0,"",1*T5)</f>
-        <v>42.412999999999997</v>
+        <v>45.066000000000003</v>
       </c>
       <c r="U21" s="9" cm="1">
         <f t="array" ref="U21">IF(IFERROR(IF(MATCH(U5,LARGE(U$3:U$12,{1}),0)&gt;0,0,0),1)=0,"",1*U5)</f>
-        <v>74.400000000000006</v>
+        <v>65.161000000000001</v>
       </c>
       <c r="V21" s="9" cm="1">
         <f t="array" ref="V21">IF(IFERROR(IF(MATCH(V5,LARGE(V$3:V$12,{1}),0)&gt;0,0,0),1)=0,"",1*V5)</f>
-        <v>48.8688</v>
+        <v>60.770699999999998</v>
       </c>
       <c r="W21" s="9" cm="1">
         <f t="array" ref="W21">IF(IFERROR(IF(MATCH(W5,LARGE(W$3:W$12,{1}),0)&gt;0,0,0),1)=0,"",1*W5)</f>
-        <v>50.469700000000003</v>
+        <v>62.239199999999997</v>
       </c>
       <c r="X21" s="9" cm="1">
         <f t="array" ref="X21">IF(IFERROR(IF(MATCH(X5,LARGE(X$3:X$12,{1}),0)&gt;0,0,0),1)=0,"",1*X5)</f>
-        <v>49.026699999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+        <v>60.432400000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B22" s="9" cm="1">
         <f t="array" ref="B22">IF(IFERROR(IF(MATCH(B6,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B6)</f>
         <v>41.984999999999999</v>
@@ -1962,26 +1963,26 @@
       <c r="S22" s="10"/>
       <c r="T22" s="9" cm="1">
         <f t="array" ref="T22">IF(IFERROR(IF(MATCH(T6,LARGE(T$3:T$12,{1}),0)&gt;0,0,0),1)=0,"",1*T6)</f>
-        <v>41.814999999999998</v>
+        <v>45.009</v>
       </c>
       <c r="U22" s="9" cm="1">
         <f t="array" ref="U22">IF(IFERROR(IF(MATCH(U6,LARGE(U$3:U$12,{1}),0)&gt;0,0,0),1)=0,"",1*U6)</f>
-        <v>63.93</v>
+        <v>64.584999999999994</v>
       </c>
       <c r="V22" s="9" cm="1">
         <f t="array" ref="V22">IF(IFERROR(IF(MATCH(V6,LARGE(V$3:V$12,{1}),0)&gt;0,0,0),1)=0,"",1*V6)</f>
-        <v>48.605800000000002</v>
-      </c>
-      <c r="W22" s="9" t="str" cm="1">
+        <v>60.6066</v>
+      </c>
+      <c r="W22" s="9" cm="1">
         <f t="array" ref="W22">IF(IFERROR(IF(MATCH(W6,LARGE(W$3:W$12,{1}),0)&gt;0,0,0),1)=0,"",1*W6)</f>
-        <v/>
-      </c>
-      <c r="X22" s="9" cm="1">
+        <v>61.264899999999997</v>
+      </c>
+      <c r="X22" s="9" t="str" cm="1">
         <f t="array" ref="X22">IF(IFERROR(IF(MATCH(X6,LARGE(X$3:X$12,{1}),0)&gt;0,0,0),1)=0,"",1*X6)</f>
-        <v>49.055900000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B23" s="9" cm="1">
         <f t="array" ref="B23">IF(IFERROR(IF(MATCH(B7,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B7)</f>
         <v>41.792999999999999</v>
@@ -2047,26 +2048,26 @@
       <c r="S23" s="10"/>
       <c r="T23" s="9" cm="1">
         <f t="array" ref="T23">IF(IFERROR(IF(MATCH(T7,LARGE(T$3:T$12,{1}),0)&gt;0,0,0),1)=0,"",1*T7)</f>
-        <v>41.152999999999999</v>
-      </c>
-      <c r="U23" s="9" cm="1">
+        <v>44.975999999999999</v>
+      </c>
+      <c r="U23" s="9" t="str" cm="1">
         <f t="array" ref="U23">IF(IFERROR(IF(MATCH(U7,LARGE(U$3:U$12,{1}),0)&gt;0,0,0),1)=0,"",1*U7)</f>
-        <v>75.138999999999996</v>
+        <v/>
       </c>
       <c r="V23" s="9" cm="1">
         <f t="array" ref="V23">IF(IFERROR(IF(MATCH(V7,LARGE(V$3:V$12,{1}),0)&gt;0,0,0),1)=0,"",1*V7)</f>
-        <v>48.368000000000002</v>
+        <v>59.997300000000003</v>
       </c>
       <c r="W23" s="9" cm="1">
         <f t="array" ref="W23">IF(IFERROR(IF(MATCH(W7,LARGE(W$3:W$12,{1}),0)&gt;0,0,0),1)=0,"",1*W7)</f>
-        <v>50.622900000000001</v>
+        <v>61.570500000000003</v>
       </c>
       <c r="X23" s="9" cm="1">
         <f t="array" ref="X23">IF(IFERROR(IF(MATCH(X7,LARGE(X$3:X$12,{1}),0)&gt;0,0,0),1)=0,"",1*X7)</f>
-        <v>47.796799999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+        <v>59.860700000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B24" s="9" cm="1">
         <f t="array" ref="B24">IF(IFERROR(IF(MATCH(B8,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B8)</f>
         <v>41.076999999999998</v>
@@ -2142,16 +2143,16 @@
         <f t="array" ref="V24">IF(IFERROR(IF(MATCH(V8,LARGE(V$3:V$12,{1}),0)&gt;0,0,0),1)=0,"",1*V8)</f>
         <v>59.793799999999997</v>
       </c>
-      <c r="W24" s="9" cm="1">
+      <c r="W24" s="9" t="str" cm="1">
         <f t="array" ref="W24">IF(IFERROR(IF(MATCH(W8,LARGE(W$3:W$12,{1}),0)&gt;0,0,0),1)=0,"",1*W8)</f>
-        <v>65.538499999999999</v>
+        <v/>
       </c>
       <c r="X24" s="9" cm="1">
         <f t="array" ref="X24">IF(IFERROR(IF(MATCH(X8,LARGE(X$3:X$12,{1}),0)&gt;0,0,0),1)=0,"",1*X8)</f>
         <v>59.370600000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B25" s="9" cm="1">
         <f t="array" ref="B25">IF(IFERROR(IF(MATCH(B9,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B9)</f>
         <v>41.087000000000003</v>
@@ -2236,7 +2237,7 @@
         <v>59.8917</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B26" s="9" cm="1">
         <f t="array" ref="B26">IF(IFERROR(IF(MATCH(B10,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B10)</f>
         <v>41.085000000000001</v>
@@ -2321,7 +2322,7 @@
         <v>59.061900000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B27" s="9" cm="1">
         <f t="array" ref="B27">IF(IFERROR(IF(MATCH(B11,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B11)</f>
         <v>41.064</v>
@@ -2406,7 +2407,7 @@
         <v>59.930700000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B28" s="9" cm="1">
         <f t="array" ref="B28">IF(IFERROR(IF(MATCH(B12,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B12)</f>
         <v>41.067999999999998</v>
@@ -2486,12 +2487,12 @@
         <f t="array" ref="W28">IF(IFERROR(IF(MATCH(W12,LARGE(W$3:W$12,{1}),0)&gt;0,0,0),1)=0,"",1*W12)</f>
         <v>62.23</v>
       </c>
-      <c r="X28" s="9" t="str" cm="1">
+      <c r="X28" s="9" cm="1">
         <f t="array" ref="X28">IF(IFERROR(IF(MATCH(X12,LARGE(X$3:X$12,{1}),0)&gt;0,0,0),1)=0,"",1*X12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+        <v>60.37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
     </row>
   </sheetData>
@@ -2514,18 +2515,18 @@
       <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
@@ -2555,7 +2556,7 @@
       <c r="W1" s="11"/>
       <c r="X1" s="11"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2617,7 +2618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>47.436999999999998</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>66.269900000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>47.387999999999998</v>
       </c>
@@ -2741,7 +2742,7 @@
         <v>65.792900000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>46.978000000000002</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>65.825900000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>47.204000000000001</v>
       </c>
@@ -2865,7 +2866,7 @@
         <v>65.764399999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>9999</v>
       </c>
@@ -2927,7 +2928,7 @@
         <v>65.8005</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>46.854999999999997</v>
       </c>
@@ -2989,7 +2990,7 @@
         <v>65.864900000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>47.24</v>
       </c>
@@ -3051,7 +3052,7 @@
         <v>66.028899999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>47.162999999999997</v>
       </c>
@@ -3113,7 +3114,7 @@
         <v>65.437200000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>46.576000000000001</v>
       </c>
@@ -3175,7 +3176,7 @@
         <v>65.586100000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>46.908000000000001</v>
       </c>
@@ -3237,7 +3238,7 @@
         <v>66.0578</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -3264,7 +3265,7 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>0.60789811627571222</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
@@ -3452,7 +3453,7 @@
         <v>0.6112730984822089</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
@@ -3546,7 +3547,7 @@
         <v>0.60553030830575649</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B19" s="9" cm="1">
         <f t="array" ref="B19">IF(IFERROR(IF(MATCH(B3,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B3)</f>
         <v>47.436999999999998</v>
@@ -3631,7 +3632,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B20" s="9" cm="1">
         <f t="array" ref="B20">IF(IFERROR(IF(MATCH(B4,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B4)</f>
         <v>47.387999999999998</v>
@@ -3716,7 +3717,7 @@
         <v>65.792900000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B21" s="9" cm="1">
         <f t="array" ref="B21">IF(IFERROR(IF(MATCH(B5,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B5)</f>
         <v>46.978000000000002</v>
@@ -3801,7 +3802,7 @@
         <v>65.825900000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B22" s="9" cm="1">
         <f t="array" ref="B22">IF(IFERROR(IF(MATCH(B6,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B6)</f>
         <v>47.204000000000001</v>
@@ -3886,7 +3887,7 @@
         <v>65.764399999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="str" cm="1">
         <f t="array" ref="B23">IF(IFERROR(IF(MATCH(B7,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B7)</f>
         <v/>
@@ -3971,7 +3972,7 @@
         <v>65.8005</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B24" s="9" cm="1">
         <f t="array" ref="B24">IF(IFERROR(IF(MATCH(B8,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B8)</f>
         <v>46.854999999999997</v>
@@ -4056,7 +4057,7 @@
         <v>65.864900000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B25" s="9" cm="1">
         <f t="array" ref="B25">IF(IFERROR(IF(MATCH(B9,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B9)</f>
         <v>47.24</v>
@@ -4141,7 +4142,7 @@
         <v>66.028899999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B26" s="9" cm="1">
         <f t="array" ref="B26">IF(IFERROR(IF(MATCH(B10,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B10)</f>
         <v>47.162999999999997</v>
@@ -4226,7 +4227,7 @@
         <v>65.437200000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B27" s="9" cm="1">
         <f t="array" ref="B27">IF(IFERROR(IF(MATCH(B11,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B11)</f>
         <v>46.576000000000001</v>
@@ -4311,7 +4312,7 @@
         <v>65.586100000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B28" s="9" cm="1">
         <f t="array" ref="B28">IF(IFERROR(IF(MATCH(B12,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B12)</f>
         <v>46.908000000000001</v>
@@ -4412,22 +4413,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D61CA9-EAB8-4D9D-BDB0-9312B6646BFC}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="T15" sqref="T15:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" customWidth="1"/>
     <col min="24" max="24" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
@@ -4457,7 +4458,7 @@
       <c r="W1" s="11"/>
       <c r="X1" s="11"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4519,7 +4520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>48.764000000000003</v>
       </c>
@@ -4581,7 +4582,7 @@
         <v>77.298699999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>49.695999999999998</v>
       </c>
@@ -4643,7 +4644,7 @@
         <v>75.538399999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>48.814</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>77.789100000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>49.570999999999998</v>
       </c>
@@ -4767,7 +4768,7 @@
         <v>78.471400000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>49.567999999999998</v>
       </c>
@@ -4829,7 +4830,7 @@
         <v>78.673400000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>49.704999999999998</v>
       </c>
@@ -4891,7 +4892,7 @@
         <v>75.558899999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>49.012</v>
       </c>
@@ -4953,7 +4954,7 @@
         <v>76.475999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>49.527000000000001</v>
       </c>
@@ -5015,7 +5016,7 @@
         <v>76.604799999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>49.142000000000003</v>
       </c>
@@ -5077,7 +5078,7 @@
         <v>76.833299999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>49.234000000000002</v>
       </c>
@@ -5139,7 +5140,7 @@
         <v>75.293999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -5166,7 +5167,7 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
@@ -5260,7 +5261,7 @@
         <v>0.52216049124859021</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
@@ -5354,7 +5355,7 @@
         <v>0.53125083007942198</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
@@ -5448,7 +5449,7 @@
         <v>0.5097398542653756</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B19" s="9" cm="1">
         <f t="array" ref="B19">IF(IFERROR(IF(MATCH(B3,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B3)</f>
         <v>48.764000000000003</v>
@@ -5533,7 +5534,7 @@
         <v>77.298699999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B20" s="9" cm="1">
         <f t="array" ref="B20">IF(IFERROR(IF(MATCH(B4,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B4)</f>
         <v>49.695999999999998</v>
@@ -5618,7 +5619,7 @@
         <v>75.538399999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B21" s="9" cm="1">
         <f t="array" ref="B21">IF(IFERROR(IF(MATCH(B5,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B5)</f>
         <v>48.814</v>
@@ -5703,7 +5704,7 @@
         <v>77.789100000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B22" s="9" cm="1">
         <f t="array" ref="B22">IF(IFERROR(IF(MATCH(B6,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B6)</f>
         <v>49.570999999999998</v>
@@ -5788,7 +5789,7 @@
         <v>78.471400000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B23" s="9" cm="1">
         <f t="array" ref="B23">IF(IFERROR(IF(MATCH(B7,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B7)</f>
         <v>49.567999999999998</v>
@@ -5873,7 +5874,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="str" cm="1">
         <f t="array" ref="B24">IF(IFERROR(IF(MATCH(B8,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B8)</f>
         <v/>
@@ -5958,7 +5959,7 @@
         <v>75.558899999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B25" s="9" cm="1">
         <f t="array" ref="B25">IF(IFERROR(IF(MATCH(B9,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B9)</f>
         <v>49.012</v>
@@ -6043,7 +6044,7 @@
         <v>76.475999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B26" s="9" cm="1">
         <f t="array" ref="B26">IF(IFERROR(IF(MATCH(B10,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B10)</f>
         <v>49.527000000000001</v>
@@ -6128,7 +6129,7 @@
         <v>76.604799999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B27" s="9" cm="1">
         <f t="array" ref="B27">IF(IFERROR(IF(MATCH(B11,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B11)</f>
         <v>49.142000000000003</v>
@@ -6213,7 +6214,7 @@
         <v>76.833299999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B28" s="9" cm="1">
         <f t="array" ref="B28">IF(IFERROR(IF(MATCH(B12,LARGE(B$3:B$12,{1}),0)&gt;0,0,0),1)=0,"",1*B12)</f>
         <v>49.234000000000002</v>
@@ -6318,9 +6319,9 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6332,7 +6333,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
@@ -6349,7 +6350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>51.484999999999999</v>
       </c>
@@ -6366,7 +6367,7 @@
         <v>206.54400000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>51.226999999999997</v>
       </c>
@@ -6383,7 +6384,7 @@
         <v>206.727</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>51.643000000000001</v>
       </c>
@@ -6400,7 +6401,7 @@
         <v>206.90700000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>51.52</v>
       </c>
@@ -6417,7 +6418,7 @@
         <v>207.35400000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>51.491</v>
       </c>
@@ -6434,7 +6435,7 @@
         <v>206.93899999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>51.5</v>
       </c>
@@ -6451,7 +6452,7 @@
         <v>206.476</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>53.625</v>
       </c>
@@ -6468,7 +6469,7 @@
         <v>206.62299999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>51.387</v>
       </c>
@@ -6485,7 +6486,7 @@
         <v>206.57599999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>51.350999999999999</v>
       </c>
@@ -6505,7 +6506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>51.676000000000002</v>
       </c>
@@ -6525,14 +6526,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
@@ -6557,7 +6558,7 @@
         <v>0.96770291520503204</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
@@ -6582,7 +6583,7 @@
         <v>0.96863557992212168</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
@@ -6607,7 +6608,7 @@
         <v>0.9645340818117808</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="9" cm="1">
         <f t="array" ref="B19">IF(IFERROR(IF(MATCH(B3,LARGE(B$3:B$12,{1,2}),0)&gt;0,0,0),1)=0,"",1*B3)</f>
@@ -6630,7 +6631,7 @@
         <v>206.54400000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="9" cm="1">
         <f t="array" ref="B20">IF(IFERROR(IF(MATCH(B4,LARGE(B$3:B$12,{1,2}),0)&gt;0,0,0),1)=0,"",1*B4)</f>
@@ -6653,7 +6654,7 @@
         <v>206.727</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="9" cm="1">
         <f t="array" ref="B21">IF(IFERROR(IF(MATCH(B5,LARGE(B$3:B$12,{1,2}),0)&gt;0,0,0),1)=0,"",1*B5)</f>
@@ -6676,7 +6677,7 @@
         <v>206.90700000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="9" cm="1">
         <f t="array" ref="B22">IF(IFERROR(IF(MATCH(B6,LARGE(B$3:B$12,{1,2}),0)&gt;0,0,0),1)=0,"",1*B6)</f>
@@ -6699,7 +6700,7 @@
         <v>207.35400000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="9" cm="1">
         <f t="array" ref="B23">IF(IFERROR(IF(MATCH(B7,LARGE(B$3:B$12,{1,2}),0)&gt;0,0,0),1)=0,"",1*B7)</f>
@@ -6722,7 +6723,7 @@
         <v>206.93899999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="9" cm="1">
         <f t="array" ref="B24">IF(IFERROR(IF(MATCH(B8,LARGE(B$3:B$12,{1,2}),0)&gt;0,0,0),1)=0,"",1*B8)</f>
@@ -6745,7 +6746,7 @@
         <v>206.476</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="9" t="str" cm="1">
         <f t="array" ref="B25">IF(IFERROR(IF(MATCH(B9,LARGE(B$3:B$12,{1,2}),0)&gt;0,0,0),1)=0,"",1*B9)</f>
@@ -6768,7 +6769,7 @@
         <v>206.62299999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="9" cm="1">
         <f t="array" ref="B26">IF(IFERROR(IF(MATCH(B10,LARGE(B$3:B$12,{1,2}),0)&gt;0,0,0),1)=0,"",1*B10)</f>
@@ -6791,7 +6792,7 @@
         <v>206.57599999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="9" cm="1">
         <f t="array" ref="B27">IF(IFERROR(IF(MATCH(B11,LARGE(B$3:B$12,{1,2}),0)&gt;0,0,0),1)=0,"",1*B11)</f>
@@ -6814,7 +6815,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="9" t="str" cm="1">
         <f t="array" ref="B28">IF(IFERROR(IF(MATCH(B12,LARGE(B$3:B$12,{1,2}),0)&gt;0,0,0),1)=0,"",1*B12)</f>
